--- a/src/class_CYTO/results_template.xlsx
+++ b/src/class_CYTO/results_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="16395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28530" windowHeight="16395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group size &gt; 1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,7 +70,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -88,26 +84,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -407,7 +383,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -447,7 +426,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
